--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49274819267434</v>
+        <v>1.542357666666667</v>
       </c>
       <c r="H2">
-        <v>1.49274819267434</v>
+        <v>4.627073</v>
       </c>
       <c r="I2">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="J2">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N2">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O2">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P2">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q2">
-        <v>603.8648954931334</v>
+        <v>625.0349844705268</v>
       </c>
       <c r="R2">
-        <v>603.8648954931334</v>
+        <v>5625.31486023474</v>
       </c>
       <c r="S2">
-        <v>0.3770454187961204</v>
+        <v>0.168657665782608</v>
       </c>
       <c r="T2">
-        <v>0.3770454187961204</v>
+        <v>0.168657665782608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49274819267434</v>
+        <v>1.542357666666667</v>
       </c>
       <c r="H3">
-        <v>1.49274819267434</v>
+        <v>4.627073</v>
       </c>
       <c r="I3">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="J3">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N3">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O3">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P3">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q3">
-        <v>8.362756739177051</v>
+        <v>8.685290046545445</v>
       </c>
       <c r="R3">
-        <v>8.362756739177051</v>
+        <v>78.16761041890901</v>
       </c>
       <c r="S3">
-        <v>0.005221596983938179</v>
+        <v>0.002343614009280065</v>
       </c>
       <c r="T3">
-        <v>0.005221596983938179</v>
+        <v>0.002343614009280065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49274819267434</v>
+        <v>1.542357666666667</v>
       </c>
       <c r="H4">
-        <v>1.49274819267434</v>
+        <v>4.627073</v>
       </c>
       <c r="I4">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="J4">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N4">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O4">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P4">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q4">
-        <v>2.589742927813434</v>
+        <v>3.021059661833889</v>
       </c>
       <c r="R4">
-        <v>2.589742927813434</v>
+        <v>27.189536956505</v>
       </c>
       <c r="S4">
-        <v>0.00161700193881002</v>
+        <v>0.0008151941625899908</v>
       </c>
       <c r="T4">
-        <v>0.00161700193881002</v>
+        <v>0.0008151941625899907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.49274819267434</v>
+        <v>1.542357666666667</v>
       </c>
       <c r="H5">
-        <v>1.49274819267434</v>
+        <v>4.627073</v>
       </c>
       <c r="I5">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="J5">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N5">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O5">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P5">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q5">
-        <v>4.358258697106947</v>
+        <v>5.033596837276333</v>
       </c>
       <c r="R5">
-        <v>4.358258697106947</v>
+        <v>45.302371535487</v>
       </c>
       <c r="S5">
-        <v>0.002721240277314991</v>
+        <v>0.001358251480570968</v>
       </c>
       <c r="T5">
-        <v>0.002721240277314991</v>
+        <v>0.001358251480570968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.49274819267434</v>
+        <v>1.542357666666667</v>
       </c>
       <c r="H6">
-        <v>1.49274819267434</v>
+        <v>4.627073</v>
       </c>
       <c r="I6">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="J6">
-        <v>0.3875936853659678</v>
+        <v>0.1736642262104688</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N6">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O6">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P6">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q6">
-        <v>1.58303631499643</v>
+        <v>1.814059907345889</v>
       </c>
       <c r="R6">
-        <v>1.58303631499643</v>
+        <v>16.326539166113</v>
       </c>
       <c r="S6">
-        <v>0.0009884273697842122</v>
+        <v>0.0004895007754197143</v>
       </c>
       <c r="T6">
-        <v>0.0009884273697842122</v>
+        <v>0.0004895007754197141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.35857407864925</v>
+        <v>7.338905333333334</v>
       </c>
       <c r="H7">
-        <v>2.35857407864925</v>
+        <v>22.016716</v>
       </c>
       <c r="I7">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="J7">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>404.532323975738</v>
+        <v>405.24646</v>
       </c>
       <c r="N7">
-        <v>404.532323975738</v>
+        <v>1215.73938</v>
       </c>
       <c r="O7">
-        <v>0.9727852465917042</v>
+        <v>0.971171031955694</v>
       </c>
       <c r="P7">
-        <v>0.9727852465917042</v>
+        <v>0.9711710319556939</v>
       </c>
       <c r="Q7">
-        <v>954.1194533049162</v>
+        <v>2974.065406608453</v>
       </c>
       <c r="R7">
-        <v>954.1194533049162</v>
+        <v>26766.58865947608</v>
       </c>
       <c r="S7">
-        <v>0.5957398277955839</v>
+        <v>0.802513366173086</v>
       </c>
       <c r="T7">
-        <v>0.5957398277955839</v>
+        <v>0.8025133661730859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.35857407864925</v>
+        <v>7.338905333333334</v>
       </c>
       <c r="H8">
-        <v>2.35857407864925</v>
+        <v>22.016716</v>
       </c>
       <c r="I8">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="J8">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.60225547766011</v>
+        <v>5.631177666666667</v>
       </c>
       <c r="N8">
-        <v>5.60225547766011</v>
+        <v>16.893533</v>
       </c>
       <c r="O8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="P8">
-        <v>0.01347183192370103</v>
+        <v>0.01349508796612936</v>
       </c>
       <c r="Q8">
-        <v>13.21333455157991</v>
+        <v>41.32667981084756</v>
       </c>
       <c r="R8">
-        <v>13.21333455157991</v>
+        <v>371.9401182976281</v>
       </c>
       <c r="S8">
-        <v>0.008250234939762855</v>
+        <v>0.0111514739568493</v>
       </c>
       <c r="T8">
-        <v>0.008250234939762855</v>
+        <v>0.0111514739568493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.35857407864925</v>
+        <v>7.338905333333334</v>
       </c>
       <c r="H9">
-        <v>2.35857407864925</v>
+        <v>22.016716</v>
       </c>
       <c r="I9">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="J9">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.73488264164217</v>
+        <v>1.958728333333333</v>
       </c>
       <c r="N9">
-        <v>1.73488264164217</v>
+        <v>5.876185</v>
       </c>
       <c r="O9">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041018</v>
       </c>
       <c r="P9">
-        <v>0.004171899594502525</v>
+        <v>0.004694082255041017</v>
       </c>
       <c r="Q9">
-        <v>4.091849228075759</v>
+        <v>14.37492181205111</v>
       </c>
       <c r="R9">
-        <v>4.091849228075759</v>
+        <v>129.37429630846</v>
       </c>
       <c r="S9">
-        <v>0.002554897655692505</v>
+        <v>0.003878888092451028</v>
       </c>
       <c r="T9">
-        <v>0.002554897655692505</v>
+        <v>0.003878888092451027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.35857407864925</v>
+        <v>7.338905333333334</v>
       </c>
       <c r="H10">
-        <v>2.35857407864925</v>
+        <v>22.016716</v>
       </c>
       <c r="I10">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="J10">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.91962081648807</v>
+        <v>3.263573</v>
       </c>
       <c r="N10">
-        <v>2.91962081648807</v>
+        <v>9.790718999999999</v>
       </c>
       <c r="O10">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583939</v>
       </c>
       <c r="P10">
-        <v>0.007020858130713827</v>
+        <v>0.007821135706583937</v>
       </c>
       <c r="Q10">
-        <v>6.886141977253522</v>
+        <v>23.95105329542266</v>
       </c>
       <c r="R10">
-        <v>6.886141977253522</v>
+        <v>215.559479658804</v>
       </c>
       <c r="S10">
-        <v>0.004299617853398835</v>
+        <v>0.006462884226012972</v>
       </c>
       <c r="T10">
-        <v>0.004299617853398835</v>
+        <v>0.00646288422601297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.35857407864925</v>
+        <v>7.338905333333334</v>
       </c>
       <c r="H11">
-        <v>2.35857407864925</v>
+        <v>22.016716</v>
       </c>
       <c r="I11">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="J11">
-        <v>0.6124063146340323</v>
+        <v>0.8263357737895313</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.06048449615627</v>
+        <v>1.176160333333333</v>
       </c>
       <c r="N11">
-        <v>1.06048449615627</v>
+        <v>3.528481</v>
       </c>
       <c r="O11">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="P11">
-        <v>0.002550163759378418</v>
+        <v>0.002818662116551706</v>
       </c>
       <c r="Q11">
-        <v>2.501231243443589</v>
+        <v>8.631729343155111</v>
       </c>
       <c r="R11">
-        <v>2.501231243443589</v>
+        <v>77.68556408839601</v>
       </c>
       <c r="S11">
-        <v>0.001561736389594206</v>
+        <v>0.002329161341131992</v>
       </c>
       <c r="T11">
-        <v>0.001561736389594206</v>
+        <v>0.002329161341131992</v>
       </c>
     </row>
   </sheetData>
